--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.2/sum_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.2/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="175">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,202 +64,142 @@
     <t>evil</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>uncomfortable</t>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>stupid</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>dark</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>fake</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>fake</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>horrible</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>destroying</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
     <t>frightening</t>
   </si>
   <si>
+    <t>dumb</t>
+  </si>
+  <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>sad</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>ridiculous</t>
+    <t>watched</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>ironically</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>sucks</t>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>mental</t>
   </si>
   <si>
     <t>ass</t>
   </si>
   <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>ruining</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
+    <t>chilling</t>
   </si>
   <si>
     <t>social</t>
@@ -286,13 +226,25 @@
     <t>better</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>…</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>love</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>excellent</t>
@@ -301,406 +253,289 @@
     <t>happy</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>world</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>honestly</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>incredible</t>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>huge</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>dil</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>wanna</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>incredibly</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>posting</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>quick</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>thoughts</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>quite</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>awareness</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>alive</t>
-  </si>
-  <si>
-    <t>increasing</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>phenomena</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>keen</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>impressed</t>
-  </si>
-  <si>
-    <t>intriguing</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>facts</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>agile</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>promote</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>specially</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>mack</t>
-  </si>
-  <si>
-    <t>explains</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>society</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>bye</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>yep</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>hugely</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>ways</t>
   </si>
   <si>
     <t>positive</t>
@@ -1061,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,10 +904,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1130,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1566068515497553</v>
+        <v>0.1652323580034424</v>
       </c>
       <c r="C3">
         <v>96</v>
@@ -1151,16 +986,16 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="K3">
-        <v>0.1046099290780142</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L3">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1172,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1039</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1180,13 +1015,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1092985318107667</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="C4">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1198,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>0.07446808510638298</v>
+        <v>0.07454545454545454</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1222,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1230,13 +1065,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.101141924959217</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1248,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>0.0673758865248227</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1272,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1280,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04730831973898858</v>
+        <v>0.04991394148020654</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -1301,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>0.0673758865248227</v>
+        <v>0.06909090909090909</v>
       </c>
       <c r="L6">
         <v>38</v>
@@ -1330,13 +1165,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03752039151712887</v>
+        <v>0.04475043029259897</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1348,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>0.06028368794326241</v>
+        <v>0.05636363636363637</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1372,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1380,13 +1215,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03099510603588907</v>
+        <v>0.03442340791738382</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1398,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>0.04609929078014184</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1422,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1430,13 +1265,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02610114192495922</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1448,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>0.0301418439716312</v>
+        <v>0.03272727272727273</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1472,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1480,7 +1315,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02120717781402937</v>
+        <v>0.02237521514629948</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1501,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>0.02836879432624113</v>
+        <v>0.02909090909090909</v>
       </c>
       <c r="L10">
         <v>16</v>
@@ -1530,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02120717781402937</v>
+        <v>0.02237521514629948</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1548,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>0.01950354609929078</v>
+        <v>0.02</v>
       </c>
       <c r="L11">
         <v>11</v>
@@ -1572,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1725</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1580,7 +1415,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01957585644371941</v>
+        <v>0.02065404475043029</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1598,13 +1433,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.01773049645390071</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -1622,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1630,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01957585644371941</v>
+        <v>0.02065404475043029</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1648,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.01595744680851064</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1672,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1680,13 +1515,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01794453507340946</v>
+        <v>0.02065404475043029</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1698,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.01418439716312057</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1722,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1730,7 +1565,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01794453507340946</v>
+        <v>0.0189328743545611</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -1748,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.0124113475177305</v>
+        <v>0.01636363636363636</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1772,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1780,13 +1615,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01794453507340946</v>
+        <v>0.01721170395869191</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1798,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.01063829787234043</v>
+        <v>0.01636363636363636</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1822,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>658</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1830,7 +1665,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01631321370309951</v>
+        <v>0.01721170395869191</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1848,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="K17">
-        <v>0.01063829787234043</v>
+        <v>0.01454545454545455</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1872,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>534</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1880,13 +1715,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01468189233278956</v>
+        <v>0.01721170395869191</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1898,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="K18">
-        <v>0.008865248226950355</v>
+        <v>0.01454545454545455</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1922,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1930,7 +1765,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01468189233278956</v>
+        <v>0.01549053356282272</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -1948,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>0.008865248226950355</v>
+        <v>0.01454545454545455</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1972,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1980,13 +1815,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01305057096247961</v>
+        <v>0.01549053356282272</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1998,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="K20">
-        <v>0.008865248226950355</v>
+        <v>0.01272727272727273</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2022,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2030,13 +1865,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01305057096247961</v>
+        <v>0.01549053356282272</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2048,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>0.008865248226950355</v>
+        <v>0.01272727272727273</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2072,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2080,7 +1915,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01305057096247961</v>
+        <v>0.01376936316695353</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -2098,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="K22">
-        <v>0.008865248226950355</v>
+        <v>0.01272727272727273</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2122,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2130,13 +1965,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01305057096247961</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2148,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="K23">
-        <v>0.008865248226950355</v>
+        <v>0.01090909090909091</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2172,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2180,7 +2015,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01141924959216966</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -2198,19 +2033,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="K24">
-        <v>0.008865248226950355</v>
+        <v>0.01090909090909091</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2222,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2230,7 +2065,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01141924959216966</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -2248,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>0.007092198581560284</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2272,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2280,7 +2115,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01141924959216966</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -2298,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="K26">
-        <v>0.007092198581560284</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2322,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2330,13 +2165,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01141924959216966</v>
+        <v>0.01032702237521515</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2348,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="K27">
-        <v>0.007092198581560284</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2372,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2380,7 +2215,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.009787928221859706</v>
+        <v>0.01032702237521515</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -2398,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="K28">
-        <v>0.007092198581560284</v>
+        <v>0.007272727272727273</v>
       </c>
       <c r="L28">
         <v>4</v>
@@ -2422,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2430,7 +2265,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.009787928221859706</v>
+        <v>0.01032702237521515</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -2448,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="K29">
-        <v>0.007092198581560284</v>
+        <v>0.007272727272727273</v>
       </c>
       <c r="L29">
         <v>4</v>
@@ -2472,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>311</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2480,7 +2315,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.009787928221859706</v>
+        <v>0.01032702237521515</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -2498,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K30">
-        <v>0.007092198581560284</v>
+        <v>0.007272727272727273</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -2522,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2530,7 +2365,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.009787928221859706</v>
+        <v>0.01032702237521515</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2548,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K31">
-        <v>0.007092198581560284</v>
+        <v>0.007272727272727273</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -2572,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2580,7 +2415,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.009787928221859706</v>
+        <v>0.01032702237521515</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -2598,19 +2433,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>0.007092198581560284</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2622,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2630,7 +2465,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.009787928221859706</v>
+        <v>0.01032702237521515</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -2648,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="K33">
-        <v>0.005319148936170213</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L33">
         <v>3</v>
@@ -2672,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2680,13 +2515,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008156606851549755</v>
+        <v>0.01032702237521515</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2698,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="K34">
-        <v>0.005319148936170213</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L34">
         <v>3</v>
@@ -2722,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2730,7 +2565,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.008156606851549755</v>
+        <v>0.008605851979345954</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -2748,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="K35">
-        <v>0.005319148936170213</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L35">
         <v>3</v>
@@ -2772,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2780,7 +2615,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008156606851549755</v>
+        <v>0.008605851979345954</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -2798,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="K36">
-        <v>0.005319148936170213</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L36">
         <v>3</v>
@@ -2822,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>45</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2830,7 +2665,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.008156606851549755</v>
+        <v>0.008605851979345954</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -2848,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="K37">
-        <v>0.005319148936170213</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L37">
         <v>3</v>
@@ -2872,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2880,13 +2715,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.008156606851549755</v>
+        <v>0.006884681583476764</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2898,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K38">
-        <v>0.005319148936170213</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L38">
         <v>3</v>
@@ -2930,7 +2765,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006525285481239805</v>
+        <v>0.006884681583476764</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -2948,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="K39">
-        <v>0.005319148936170213</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L39">
         <v>3</v>
@@ -2980,13 +2815,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004893964110929853</v>
+        <v>0.006884681583476764</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2998,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="K40">
-        <v>0.005319148936170213</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L40">
         <v>3</v>
@@ -3022,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3030,7 +2865,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004893964110929853</v>
+        <v>0.005163511187607574</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -3048,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>0.005319148936170213</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L41">
         <v>3</v>
@@ -3072,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>134</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3080,13 +2915,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004893964110929853</v>
+        <v>0.003442340791738382</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3098,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="K42">
-        <v>0.005319148936170213</v>
+        <v>0.005454545454545455</v>
       </c>
       <c r="L42">
         <v>3</v>
@@ -3122,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3130,13 +2965,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004893964110929853</v>
+        <v>0.003442340791738382</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3148,19 +2983,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="K43">
-        <v>0.005319148936170213</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3172,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3180,13 +3015,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004893964110929853</v>
+        <v>0.003442340791738382</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3198,19 +3033,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="K44">
-        <v>0.005319148936170213</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3222,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>613</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3230,13 +3065,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004893964110929853</v>
+        <v>0.003442340791738382</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3248,31 +3083,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.005319148936170213</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>38</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3280,37 +3115,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004893964110929853</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="K46">
-        <v>0.005319148936170213</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3322,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>778</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3330,38 +3165,38 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003262642740619902</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>21</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47">
+        <v>0.003636363636363636</v>
+      </c>
+      <c r="L47">
         <v>2</v>
       </c>
-      <c r="D47">
+      <c r="M47">
         <v>2</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K47">
-        <v>0.005319148936170213</v>
-      </c>
-      <c r="L47">
-        <v>3</v>
-      </c>
-      <c r="M47">
-        <v>3</v>
-      </c>
       <c r="N47">
         <v>1</v>
       </c>
@@ -3372,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3380,38 +3215,38 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003262642740619902</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>21</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48">
+        <v>0.003636363636363636</v>
+      </c>
+      <c r="L48">
         <v>2</v>
       </c>
-      <c r="D48">
+      <c r="M48">
         <v>2</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K48">
-        <v>0.005319148936170213</v>
-      </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
-      <c r="M48">
-        <v>3</v>
-      </c>
       <c r="N48">
         <v>1</v>
       </c>
@@ -3422,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3430,38 +3265,38 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003262642740619902</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49">
+        <v>0.003636363636363636</v>
+      </c>
+      <c r="L49">
         <v>2</v>
       </c>
-      <c r="D49">
+      <c r="M49">
         <v>2</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K49">
-        <v>0.005319148936170213</v>
-      </c>
-      <c r="L49">
-        <v>3</v>
-      </c>
-      <c r="M49">
-        <v>3</v>
-      </c>
       <c r="N49">
         <v>1</v>
       </c>
@@ -3472,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3480,13 +3315,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003262642740619902</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3498,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="K50">
-        <v>0.003546099290780142</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -3522,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3530,13 +3365,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003262642740619902</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3548,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K51">
-        <v>0.003546099290780142</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L51">
         <v>2</v>
@@ -3572,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3580,13 +3415,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003262642740619902</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3598,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="K52">
-        <v>0.003546099290780142</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -3622,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3630,31 +3465,31 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003262642740619902</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="K53">
-        <v>0.003546099290780142</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -3672,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3680,13 +3515,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003262642740619902</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3698,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="K54">
-        <v>0.003546099290780142</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L54">
         <v>2</v>
@@ -3722,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3730,13 +3565,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003262642740619902</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3748,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="K55">
-        <v>0.003546099290780142</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -3772,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3780,13 +3615,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003262642740619902</v>
+        <v>0.001721170395869191</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3798,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="K56">
-        <v>0.003546099290780142</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L56">
         <v>2</v>
@@ -3822,39 +3657,15 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.003262642740619902</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>13</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="K57">
-        <v>0.003546099290780142</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -3872,39 +3683,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.003262642740619902</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>17</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="K58">
-        <v>0.003546099290780142</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L58">
         <v>2</v>
@@ -3922,39 +3709,15 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.003262642740619902</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>10</v>
-      </c>
       <c r="J59" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="K59">
-        <v>0.003546099290780142</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="L59">
         <v>2</v>
@@ -3972,45 +3735,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.003262642740619902</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>19</v>
-      </c>
       <c r="J60" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K60">
-        <v>0.003546099290780142</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -4022,45 +3761,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
       <c r="J61" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="K61">
-        <v>0.003546099290780142</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -4072,45 +3787,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>3</v>
-      </c>
       <c r="J62" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="K62">
-        <v>0.003546099290780142</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -4122,45 +3813,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
       <c r="J63" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="K63">
-        <v>0.003546099290780142</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -4172,95 +3839,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
       <c r="J64" s="1" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="K64">
-        <v>0.003546099290780142</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>2</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>14</v>
-      </c>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="K65">
-        <v>0.003546099290780142</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -4272,45 +3891,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>18</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="K66">
-        <v>0.003546099290780142</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -4322,45 +3917,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="K67">
-        <v>0.003546099290780142</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4372,39 +3943,15 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B68">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="K68">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4422,39 +3969,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K69">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4472,417 +3995,249 @@
         <v>0</v>
       </c>
       <c r="Q69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K70">
+        <v>0.001818181818181818</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K71">
+        <v>0.001818181818181818</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K72">
+        <v>0.001818181818181818</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K73">
+        <v>0.001818181818181818</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K74">
+        <v>0.001818181818181818</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K70">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K71">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71">
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K75">
+        <v>0.001818181818181818</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K76">
+        <v>0.001818181818181818</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K77">
+        <v>0.001818181818181818</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K78">
+        <v>0.001818181818181818</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>3</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K72">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>3</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K73">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K74">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>5</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K75">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.001631321370309951</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76">
-        <v>0.5</v>
-      </c>
-      <c r="F76">
-        <v>0.5</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>297</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K76">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="J77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K77">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="J78" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K78">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="K79">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -4900,15 +4255,15 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K80">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -4926,15 +4281,15 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="K81">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -4952,15 +4307,15 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K82">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -4978,15 +4333,15 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="K83">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -5004,15 +4359,15 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="K84">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -5030,15 +4385,15 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K85">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -5056,15 +4411,15 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K86">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5082,15 +4437,15 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="K87">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -5108,15 +4463,15 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="K88">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5134,15 +4489,15 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="K89">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5160,15 +4515,15 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="K90">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5186,15 +4541,15 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="K91">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -5212,15 +4567,15 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="K92">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -5238,15 +4593,15 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K93">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -5264,15 +4619,15 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="K94">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -5290,15 +4645,15 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="K95">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -5316,15 +4671,15 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="K96">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -5342,15 +4697,15 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="K97">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -5368,15 +4723,15 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="K98">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -5394,15 +4749,15 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K99">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -5420,15 +4775,15 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="K100">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -5446,15 +4801,15 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="K101">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -5472,15 +4827,15 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K102">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -5498,15 +4853,15 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K103">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -5524,15 +4879,15 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="K104">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -5550,15 +4905,15 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="K105">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -5576,15 +4931,15 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="K106">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -5602,15 +4957,15 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="K107">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -5628,15 +4983,15 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="K108">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -5654,15 +5009,15 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="K109">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -5680,15 +5035,15 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K110">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -5706,15 +5061,15 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="K111">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -5732,15 +5087,15 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="K112">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -5758,15 +5113,15 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="K113">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L113">
         <v>1</v>
@@ -5784,15 +5139,15 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="K114">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L114">
         <v>1</v>
@@ -5810,15 +5165,15 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="K115">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -5836,15 +5191,15 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="K116">
-        <v>0.001773049645390071</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -5862,891 +5217,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="10:17">
-      <c r="J117" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K117">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L117">
-        <v>1</v>
-      </c>
-      <c r="M117">
-        <v>1</v>
-      </c>
-      <c r="N117">
-        <v>1</v>
-      </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-      <c r="P117" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="10:17">
-      <c r="J118" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K118">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L118">
-        <v>1</v>
-      </c>
-      <c r="M118">
-        <v>1</v>
-      </c>
-      <c r="N118">
-        <v>1</v>
-      </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="P118" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="119" spans="10:17">
-      <c r="J119" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K119">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L119">
-        <v>1</v>
-      </c>
-      <c r="M119">
-        <v>1</v>
-      </c>
-      <c r="N119">
-        <v>1</v>
-      </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-      <c r="P119" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="10:17">
-      <c r="J120" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K120">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L120">
-        <v>1</v>
-      </c>
-      <c r="M120">
-        <v>1</v>
-      </c>
-      <c r="N120">
-        <v>1</v>
-      </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-      <c r="P120" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="10:17">
-      <c r="J121" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K121">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L121">
-        <v>1</v>
-      </c>
-      <c r="M121">
-        <v>1</v>
-      </c>
-      <c r="N121">
-        <v>1</v>
-      </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-      <c r="P121" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="10:17">
-      <c r="J122" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K122">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L122">
-        <v>1</v>
-      </c>
-      <c r="M122">
-        <v>1</v>
-      </c>
-      <c r="N122">
-        <v>1</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-      <c r="P122" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="10:17">
-      <c r="J123" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K123">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L123">
-        <v>1</v>
-      </c>
-      <c r="M123">
-        <v>1</v>
-      </c>
-      <c r="N123">
-        <v>1</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-      <c r="P123" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q123">
         <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="10:17">
-      <c r="J124" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K124">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L124">
-        <v>1</v>
-      </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-      <c r="N124">
-        <v>1</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-      <c r="P124" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q124">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="125" spans="10:17">
-      <c r="J125" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K125">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L125">
-        <v>1</v>
-      </c>
-      <c r="M125">
-        <v>2</v>
-      </c>
-      <c r="N125">
-        <v>0.5</v>
-      </c>
-      <c r="O125">
-        <v>0.5</v>
-      </c>
-      <c r="P125" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q125">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="126" spans="10:17">
-      <c r="J126" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K126">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L126">
-        <v>1</v>
-      </c>
-      <c r="M126">
-        <v>1</v>
-      </c>
-      <c r="N126">
-        <v>1</v>
-      </c>
-      <c r="O126">
-        <v>0</v>
-      </c>
-      <c r="P126" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q126">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="10:17">
-      <c r="J127" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K127">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L127">
-        <v>1</v>
-      </c>
-      <c r="M127">
-        <v>1</v>
-      </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" spans="10:17">
-      <c r="J128" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K128">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L128">
-        <v>1</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-      <c r="N128">
-        <v>1</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="10:17">
-      <c r="J129" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K129">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L129">
-        <v>1</v>
-      </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-      <c r="N129">
-        <v>1</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-      <c r="P129" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="10:17">
-      <c r="J130" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K130">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L130">
-        <v>1</v>
-      </c>
-      <c r="M130">
-        <v>1</v>
-      </c>
-      <c r="N130">
-        <v>1</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-      <c r="P130" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q130">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="10:17">
-      <c r="J131" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K131">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L131">
-        <v>1</v>
-      </c>
-      <c r="M131">
-        <v>1</v>
-      </c>
-      <c r="N131">
-        <v>1</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
-      </c>
-      <c r="P131" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="10:17">
-      <c r="J132" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K132">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L132">
-        <v>1</v>
-      </c>
-      <c r="M132">
-        <v>1</v>
-      </c>
-      <c r="N132">
-        <v>1</v>
-      </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-      <c r="P132" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q132">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="10:17">
-      <c r="J133" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K133">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L133">
-        <v>1</v>
-      </c>
-      <c r="M133">
-        <v>1</v>
-      </c>
-      <c r="N133">
-        <v>1</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="10:17">
-      <c r="J134" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K134">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L134">
-        <v>1</v>
-      </c>
-      <c r="M134">
-        <v>1</v>
-      </c>
-      <c r="N134">
-        <v>1</v>
-      </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="10:17">
-      <c r="J135" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K135">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L135">
-        <v>1</v>
-      </c>
-      <c r="M135">
-        <v>1</v>
-      </c>
-      <c r="N135">
-        <v>1</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q135">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="136" spans="10:17">
-      <c r="J136" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K136">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L136">
-        <v>1</v>
-      </c>
-      <c r="M136">
-        <v>1</v>
-      </c>
-      <c r="N136">
-        <v>1</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="10:17">
-      <c r="J137" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K137">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L137">
-        <v>1</v>
-      </c>
-      <c r="M137">
-        <v>1</v>
-      </c>
-      <c r="N137">
-        <v>1</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q137">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="10:17">
-      <c r="J138" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K138">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-      <c r="M138">
-        <v>1</v>
-      </c>
-      <c r="N138">
-        <v>1</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="10:17">
-      <c r="J139" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K139">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L139">
-        <v>1</v>
-      </c>
-      <c r="M139">
-        <v>1</v>
-      </c>
-      <c r="N139">
-        <v>1</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q139">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="10:17">
-      <c r="J140" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K140">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
-      <c r="M140">
-        <v>1</v>
-      </c>
-      <c r="N140">
-        <v>1</v>
-      </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-      <c r="P140" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="141" spans="10:17">
-      <c r="J141" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K141">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L141">
-        <v>1</v>
-      </c>
-      <c r="M141">
-        <v>1</v>
-      </c>
-      <c r="N141">
-        <v>1</v>
-      </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-      <c r="P141" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="10:17">
-      <c r="J142" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K142">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L142">
-        <v>1</v>
-      </c>
-      <c r="M142">
-        <v>1</v>
-      </c>
-      <c r="N142">
-        <v>1</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q142">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="10:17">
-      <c r="J143" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K143">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L143">
-        <v>1</v>
-      </c>
-      <c r="M143">
-        <v>1</v>
-      </c>
-      <c r="N143">
-        <v>1</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="10:17">
-      <c r="J144" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K144">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L144">
-        <v>1</v>
-      </c>
-      <c r="M144">
-        <v>1</v>
-      </c>
-      <c r="N144">
-        <v>1</v>
-      </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="10:17">
-      <c r="J145" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K145">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L145">
-        <v>1</v>
-      </c>
-      <c r="M145">
-        <v>1</v>
-      </c>
-      <c r="N145">
-        <v>1</v>
-      </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-      <c r="P145" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q145">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" spans="10:17">
-      <c r="J146" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K146">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L146">
-        <v>1</v>
-      </c>
-      <c r="M146">
-        <v>1</v>
-      </c>
-      <c r="N146">
-        <v>1</v>
-      </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q146">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="10:17">
-      <c r="J147" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K147">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-      <c r="M147">
-        <v>1</v>
-      </c>
-      <c r="N147">
-        <v>1</v>
-      </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-      <c r="P147" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q147">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="10:17">
-      <c r="J148" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K148">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148">
-        <v>1</v>
-      </c>
-      <c r="N148">
-        <v>1</v>
-      </c>
-      <c r="O148">
-        <v>0</v>
-      </c>
-      <c r="P148" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q148">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="149" spans="10:17">
-      <c r="J149" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K149">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L149">
-        <v>1</v>
-      </c>
-      <c r="M149">
-        <v>1</v>
-      </c>
-      <c r="N149">
-        <v>1</v>
-      </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-      <c r="P149" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q149">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="150" spans="10:17">
-      <c r="J150" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K150">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-      <c r="M150">
-        <v>1</v>
-      </c>
-      <c r="N150">
-        <v>1</v>
-      </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="P150" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
